--- a/template/FJ_Primergy/PRIMERGYチェックシート.xlsx
+++ b/template/FJ_Primergy/PRIMERGYチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="743" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="検査対象" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="156">
   <si>
     <t>server_name</t>
   </si>
@@ -465,17 +465,10 @@
     <t>iLO</t>
   </si>
   <si>
-    <t>PRIMERGY</t>
-  </si>
-  <si>
     <t>Primergy</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>ip_mng</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>192.168.10.1</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -493,6 +486,33 @@
   </si>
   <si>
     <t>161</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Primergy</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>nic_ip</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>nic_ip</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>管理LAN IP</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Primergy</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>nic_ip</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -702,9 +722,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -733,6 +750,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1021,7 +1041,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1047,25 +1067,25 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="5"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
@@ -1170,7 +1190,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -1543,345 +1563,345 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="11.875" style="13" customWidth="1"/>
-    <col min="9" max="11" width="15.875" style="13" customWidth="1"/>
-    <col min="12" max="14" width="11.875" style="13" customWidth="1"/>
-    <col min="15" max="1025" width="9" style="13"/>
-    <col min="1026" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="4.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="11.875" style="12" customWidth="1"/>
+    <col min="9" max="11" width="15.875" style="12" customWidth="1"/>
+    <col min="12" max="14" width="11.875" style="12" customWidth="1"/>
+    <col min="15" max="1025" width="9" style="12"/>
+    <col min="1026" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="11" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16" t="s">
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="16" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="17" t="s">
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="17" t="s">
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="16" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="17" t="s">
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="16" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="17" t="s">
-        <v>144</v>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="16" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
     </row>
     <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
     </row>
     <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6"/>
@@ -1900,72 +1920,72 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="17.75" style="13" customWidth="1"/>
-    <col min="5" max="5" width="56.875" style="13" customWidth="1"/>
-    <col min="6" max="1025" width="9" style="13"/>
-    <col min="1026" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="3.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="17.75" style="12" customWidth="1"/>
+    <col min="5" max="5" width="56.875" style="12" customWidth="1"/>
+    <col min="6" max="1025" width="9" style="12"/>
+    <col min="1026" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6"/>
@@ -1976,10 +1996,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK39"/>
+  <dimension ref="A1:AMK40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2080,543 +2100,559 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="F8" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A40" s="4"/>
+      <c r="B40" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
@@ -2629,7 +2665,7 @@
   <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2650,22 +2686,22 @@
         <v>113</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -2673,7 +2709,7 @@
         <v>89</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>36</v>
@@ -2695,23 +2731,23 @@
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="E3" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="19" t="s">
         <v>148</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">

--- a/template/FJ_Primergy/PRIMERGYチェックシート.xlsx
+++ b/template/FJ_Primergy/PRIMERGYチェックシート.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="minoru"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="743"/>
+    <workbookView activeTab="4" xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="743"/>
   </bookViews>
   <sheets>
     <sheet name="検査対象" sheetId="1" r:id="rId4"/>
@@ -17,10 +17,10 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1531084501" val="934" rev="123" revOS="4"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1531084501" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1531084501" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1531084501"/>
+      <pm:revision xmlns:pm="smNativeData" day="1531256919" val="934" rev="123" revOS="4"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1531256919" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1531256919" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1531256919"/>
     </ext>
   </extLst>
 </workbook>
@@ -488,7 +488,7 @@
     <t>nic_ip</t>
   </si>
   <si>
-    <t>192.168.10.1</t>
+    <t>${ip}</t>
   </si>
   <si>
     <t>true</t>
@@ -527,7 +527,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1531084501" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1531256919" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -542,7 +542,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1531084501" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1531256919" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -558,7 +558,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1531084501" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1531256919" ulstyle="none" kern="1">
             <pm:latin face="Meiryo UI" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -573,7 +573,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1531084501" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1531256919" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -589,7 +589,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1531084501" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1531256919" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -605,7 +605,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1531084501" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1531256919" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -622,7 +622,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1531084501" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1531256919" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -631,7 +631,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -644,7 +644,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1531084501" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
+            <pm:shade xmlns:pm="smNativeData" id="1531256919" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFCC"/>
           </ext>
         </extLst>
       </patternFill>
@@ -658,7 +658,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1531084501" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1531256919" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -669,7 +669,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1531084501" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1531256919" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -680,29 +680,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1531084501" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1531084501" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00F2F2F2"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1531084501" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1531256919" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -713,24 +691,13 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1531084501" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1531084501" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1531256919" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -746,7 +713,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1531084501"/>
+          <pm:border xmlns:pm="smNativeData" id="1531256919"/>
         </ext>
       </extLst>
     </border>
@@ -765,7 +732,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1531084501"/>
+          <pm:border xmlns:pm="smNativeData" id="1531256919"/>
         </ext>
       </extLst>
     </border>
@@ -784,7 +751,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1531084501">
+          <pm:border xmlns:pm="smNativeData" id="1531256919">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -808,7 +775,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1531084501">
+          <pm:border xmlns:pm="smNativeData" id="1531256919">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -832,7 +799,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1531084501">
+          <pm:border xmlns:pm="smNativeData" id="1531256919">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -856,57 +823,9 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1531084501">
+          <pm:border xmlns:pm="smNativeData" id="1531256919">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1531084501">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1531084501">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -928,26 +847,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1531084501"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1531084501"/>
+          <pm:border xmlns:pm="smNativeData" id="1531256919"/>
         </ext>
       </extLst>
     </border>
@@ -966,7 +866,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -988,9 +888,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1007,9 +904,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
@@ -1043,10 +937,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1531084501" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1531256919" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1531084501" count="4">
+      <pm:colors xmlns:pm="smNativeData" id="1531256919" count="4">
         <pm:color name="色 24" rgb="3F3F3F"/>
         <pm:color name="色 25" rgb="FFFFCC"/>
         <pm:color name="色 26" rgb="CCFFFF"/>
@@ -1286,7 +1180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" zoomScale="85" workbookViewId="0">
+    <sheetView view="normal" zoomScale="85" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -1308,509 +1202,509 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8" t="s">
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="9" t="n">
+      <c r="A4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="9" t="n">
+      <c r="A5" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="9" t="n">
+      <c r="A6" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="9" t="n">
+      <c r="A7" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="9" t="n">
+      <c r="A8" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="9" t="n">
+      <c r="A9" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="9" t="n">
+      <c r="A10" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="9" t="n">
+      <c r="A11" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="9" t="n">
+      <c r="A12" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="9" t="n">
+      <c r="A13" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="9" t="n">
+      <c r="A14" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="9" t="n">
+      <c r="A15" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="9" t="n">
+      <c r="A16" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="9" t="n">
+      <c r="A17" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="9" t="n">
+      <c r="A18" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="9" t="n">
+      <c r="A19" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="9" t="n">
+      <c r="A20" s="8" t="n">
         <v>17</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="9" t="n">
+      <c r="A21" s="8" t="n">
         <v>18</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="9" t="n">
+      <c r="A22" s="8" t="n">
         <v>19</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="9" t="n">
+      <c r="A23" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1821,7 +1715,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1531084501" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1531256919" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1832,16 +1726,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1531084501" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1531084501" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1531084501" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1531084501" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1531256919" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1531256919" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1531256919" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1531256919" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1531084501" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1531256919" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1860,11 +1754,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="4.245455" customWidth="1" style="14"/>
-    <col min="2" max="8" width="11.872727" customWidth="1" style="14"/>
-    <col min="9" max="11" width="15.872727" customWidth="1" style="14"/>
-    <col min="12" max="14" width="11.872727" customWidth="1" style="14"/>
-    <col min="15" max="1025" width="9.000000" customWidth="1" style="14"/>
+    <col min="1" max="1" width="4.245455" customWidth="1" style="4"/>
+    <col min="2" max="8" width="11.872727" customWidth="1" style="4"/>
+    <col min="9" max="11" width="15.872727" customWidth="1" style="4"/>
+    <col min="12" max="14" width="11.872727" customWidth="1" style="4"/>
+    <col min="15" max="1025" width="9.000000" customWidth="1" style="4"/>
     <col min="1026" max="16384" width="9.000000" customWidth="1" style="3"/>
   </cols>
   <sheetData>
@@ -1901,344 +1795,344 @@
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="12" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:14" hidden="1">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="15" t="s">
         <v>53</v>
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1531084501" r="4" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1531256919" r="4" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="5" spans="1:14" hidden="1">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="17" t="s">
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="15" t="s">
         <v>58</v>
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1531084501" r="5" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1531256919" r="5" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="6" spans="1:14" hidden="1">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="17" t="s">
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="15" t="s">
         <v>63</v>
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1531084501" r="6" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1531256919" r="6" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="7" spans="1:14" hidden="1">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="17" t="s">
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="15" t="s">
         <v>65</v>
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1531084501" r="7" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1531256919" r="7" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="8" spans="1:14" hidden="1">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="17" t="s">
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="15" t="s">
         <v>67</v>
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1531084501" r="8" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1531256919" r="8" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="9" spans="1:14" hidden="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1531084501" r="9" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1531256919" r="9" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="10" spans="1:14" hidden="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1531084501" r="10" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1531256919" r="10" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="11" spans="1:14" hidden="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1531084501" r="11" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1531256919" r="11" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1531084501" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1531256919" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2247,16 +2141,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1531084501" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1531084501" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1531084501" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1531084501" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1531256919" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1531256919" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1531256919" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1531256919" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1531084501" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1531256919" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2275,78 +2169,78 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="3.372727" customWidth="1" style="14"/>
-    <col min="2" max="4" width="17.745455" customWidth="1" style="14"/>
-    <col min="5" max="5" width="56.872727" customWidth="1" style="14"/>
-    <col min="6" max="1025" width="9.000000" customWidth="1" style="14"/>
+    <col min="1" max="1" width="3.372727" customWidth="1" style="4"/>
+    <col min="2" max="4" width="17.745455" customWidth="1" style="4"/>
+    <col min="5" max="5" width="56.872727" customWidth="1" style="4"/>
+    <col min="6" max="1025" width="9.000000" customWidth="1" style="4"/>
     <col min="1026" max="16384" width="9.000000" customWidth="1" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1531084501" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1531256919" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2355,16 +2249,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1531084501" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1531084501" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1531084501" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1531084501" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1531256919" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1531256919" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1531256919" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1531256919" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1531084501" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1531256919" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2439,7 +2333,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -2459,7 +2353,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -2479,7 +2373,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="7"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
         <v>85</v>
       </c>
@@ -2495,7 +2389,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -2515,7 +2409,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="7"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
         <v>90</v>
       </c>
@@ -2531,7 +2425,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="7"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
         <v>92</v>
       </c>
@@ -2659,8 +2553,8 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6" t="s">
         <v>108</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -2669,14 +2563,14 @@
       <c r="D18" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6" t="s">
         <v>110</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -2685,13 +2579,13 @@
       <c r="D19" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="7"/>
+      <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -2709,7 +2603,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="7"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="6" t="s">
         <v>114</v>
       </c>
@@ -2725,7 +2619,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="7"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="6" t="s">
         <v>116</v>
       </c>
@@ -2741,7 +2635,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="7"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="6" t="s">
         <v>118</v>
       </c>
@@ -2757,7 +2651,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="7"/>
+      <c r="A24" s="6"/>
       <c r="B24" s="6" t="s">
         <v>120</v>
       </c>
@@ -2773,7 +2667,7 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="7"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
         <v>122</v>
       </c>
@@ -2789,7 +2683,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="7"/>
+      <c r="A26" s="6"/>
       <c r="B26" s="6" t="s">
         <v>124</v>
       </c>
@@ -2805,7 +2699,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="7"/>
+      <c r="A27" s="6"/>
       <c r="B27" s="6" t="s">
         <v>126</v>
       </c>
@@ -2821,7 +2715,7 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="7"/>
+      <c r="A28" s="6"/>
       <c r="B28" s="6" t="s">
         <v>128</v>
       </c>
@@ -2837,7 +2731,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="7"/>
+      <c r="A29" s="6"/>
       <c r="B29" s="6" t="s">
         <v>130</v>
       </c>
@@ -2853,7 +2747,7 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="7"/>
+      <c r="A30" s="6"/>
       <c r="B30" s="6" t="s">
         <v>132</v>
       </c>
@@ -2869,7 +2763,7 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="7"/>
+      <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
         <v>134</v>
       </c>
@@ -2885,7 +2779,7 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="7"/>
+      <c r="A32" s="6"/>
       <c r="B32" s="6" t="s">
         <v>136</v>
       </c>
@@ -2901,7 +2795,7 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="7"/>
+      <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
         <v>138</v>
       </c>
@@ -2917,7 +2811,7 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="7"/>
+      <c r="A34" s="6"/>
       <c r="B34" s="6" t="s">
         <v>140</v>
       </c>
@@ -2933,7 +2827,7 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="7"/>
+      <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
         <v>142</v>
       </c>
@@ -2949,7 +2843,7 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="7"/>
+      <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
         <v>134</v>
       </c>
@@ -2965,7 +2859,7 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="7"/>
+      <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
         <v>144</v>
       </c>
@@ -2981,7 +2875,7 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="7"/>
+      <c r="A38" s="6"/>
       <c r="B38" s="6" t="s">
         <v>146</v>
       </c>
@@ -2997,7 +2891,7 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="7"/>
+      <c r="A39" s="6"/>
       <c r="B39" s="6" t="s">
         <v>148</v>
       </c>
@@ -3013,7 +2907,7 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="7"/>
+      <c r="A40" s="6"/>
       <c r="B40" s="6" t="s">
         <v>150</v>
       </c>
@@ -3032,7 +2926,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1531084501" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1531256919" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3043,16 +2937,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1531084501" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1531084501" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1531084501" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1531084501" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1531256919" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1531256919" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1531256919" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1531256919" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1531084501" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1531256919" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3065,7 +2959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -3083,1267 +2977,1267 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="10" t="n">
+      <c r="A3" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="18" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <f>A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <f>A5+1</f>
         <v>4</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <f>A6+1</f>
         <v>5</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <f>A7+1</f>
         <v>6</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <f>A8+1</f>
         <v>7</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <f>A9+1</f>
         <v>8</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <f>A10+1</f>
         <v>9</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <f>A11+1</f>
         <v>10</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <f>A12+1</f>
         <v>11</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <f>A13+1</f>
         <v>12</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <f>A14+1</f>
         <v>13</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="10">
+      <c r="A16" s="9">
         <f>A15+1</f>
         <v>14</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <f>A16+1</f>
         <v>15</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="10">
+      <c r="A18" s="9">
         <f>A17+1</f>
         <v>16</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="10">
+      <c r="A19" s="9">
         <f>A18+1</f>
         <v>17</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="10">
+      <c r="A20" s="9">
         <f>A19+1</f>
         <v>18</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="10">
+      <c r="A21" s="9">
         <f>A20+1</f>
         <v>19</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="10">
+      <c r="A22" s="9">
         <f>A21+1</f>
         <v>20</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="10">
+      <c r="A23" s="9">
         <f>A22+1</f>
         <v>21</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="10">
+      <c r="A24" s="9">
         <f>A23+1</f>
         <v>22</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="10">
+      <c r="A25" s="9">
         <f>A24+1</f>
         <v>23</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="10">
+      <c r="A26" s="9">
         <f>A25+1</f>
         <v>24</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="10">
+      <c r="A27" s="9">
         <f>A26+1</f>
         <v>25</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="10">
+      <c r="A28" s="9">
         <f>A27+1</f>
         <v>26</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="10">
+      <c r="A29" s="9">
         <f>A28+1</f>
         <v>27</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="10">
+      <c r="A30" s="9">
         <f>A29+1</f>
         <v>28</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="10">
+      <c r="A31" s="9">
         <f>A30+1</f>
         <v>29</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="10">
+      <c r="A32" s="9">
         <f>A31+1</f>
         <v>30</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="10">
+      <c r="A33" s="9">
         <f>A32+1</f>
         <v>31</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="10">
+      <c r="A34" s="9">
         <f>A33+1</f>
         <v>32</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="10">
+      <c r="A35" s="9">
         <f>A34+1</f>
         <v>33</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="10">
+      <c r="A36" s="9">
         <f>A35+1</f>
         <v>34</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="10">
+      <c r="A37" s="9">
         <f>A36+1</f>
         <v>35</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="10">
+      <c r="A38" s="9">
         <f>A37+1</f>
         <v>36</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="10">
+      <c r="A39" s="9">
         <f>A38+1</f>
         <v>37</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="10">
+      <c r="A40" s="9">
         <f>A39+1</f>
         <v>38</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="10">
+      <c r="A41" s="9">
         <f>A40+1</f>
         <v>39</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="10">
+      <c r="A42" s="9">
         <f>A41+1</f>
         <v>40</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="10">
+      <c r="A43" s="9">
         <f>A42+1</f>
         <v>41</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="10">
+      <c r="A44" s="9">
         <f>A43+1</f>
         <v>42</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="10">
+      <c r="A45" s="9">
         <f>A44+1</f>
         <v>43</v>
       </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="10">
+      <c r="A46" s="9">
         <f>A45+1</f>
         <v>44</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="10">
+      <c r="A47" s="9">
         <f>A46+1</f>
         <v>45</v>
       </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="10">
+      <c r="A48" s="9">
         <f>A47+1</f>
         <v>46</v>
       </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="10">
+      <c r="A49" s="9">
         <f>A48+1</f>
         <v>47</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="10">
+      <c r="A50" s="9">
         <f>A49+1</f>
         <v>48</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="10">
+      <c r="A51" s="9">
         <f>A50+1</f>
         <v>49</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="10">
+      <c r="A52" s="9">
         <f>A51+1</f>
         <v>50</v>
       </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="10">
+      <c r="A53" s="9">
         <f>A52+1</f>
         <v>51</v>
       </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="10">
+      <c r="A54" s="9">
         <f>A53+1</f>
         <v>52</v>
       </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="10">
+      <c r="A55" s="9">
         <f>A54+1</f>
         <v>53</v>
       </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="10">
+      <c r="A56" s="9">
         <f>A55+1</f>
         <v>54</v>
       </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="10">
+      <c r="A57" s="9">
         <f>A56+1</f>
         <v>55</v>
       </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="10">
+      <c r="A58" s="9">
         <f>A57+1</f>
         <v>56</v>
       </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="10">
+      <c r="A59" s="9">
         <f>A58+1</f>
         <v>57</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="10">
+      <c r="A60" s="9">
         <f>A59+1</f>
         <v>58</v>
       </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="10">
+      <c r="A61" s="9">
         <f>A60+1</f>
         <v>59</v>
       </c>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="10">
+      <c r="A62" s="9">
         <f>A61+1</f>
         <v>60</v>
       </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="10">
+      <c r="A63" s="9">
         <f>A62+1</f>
         <v>61</v>
       </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="10">
+      <c r="A64" s="9">
         <f>A63+1</f>
         <v>62</v>
       </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="10">
+      <c r="A65" s="9">
         <f>A64+1</f>
         <v>63</v>
       </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="10">
+      <c r="A66" s="9">
         <f>A65+1</f>
         <v>64</v>
       </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="10">
+      <c r="A67" s="9">
         <f>A66+1</f>
         <v>65</v>
       </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="10">
+      <c r="A68" s="9">
         <f>A67+1</f>
         <v>66</v>
       </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="10">
+      <c r="A69" s="9">
         <f>A68+1</f>
         <v>67</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="10">
+      <c r="A70" s="9">
         <f>A69+1</f>
         <v>68</v>
       </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="10">
+      <c r="A71" s="9">
         <f>A70+1</f>
         <v>69</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="10">
+      <c r="A72" s="9">
         <f>A71+1</f>
         <v>70</v>
       </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="10">
+      <c r="A73" s="9">
         <f>A72+1</f>
         <v>71</v>
       </c>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="10">
+      <c r="A74" s="9">
         <f>A73+1</f>
         <v>72</v>
       </c>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="10">
+      <c r="A75" s="9">
         <f>A74+1</f>
         <v>73</v>
       </c>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="10">
+      <c r="A76" s="9">
         <f>A75+1</f>
         <v>74</v>
       </c>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="10">
+      <c r="A77" s="9">
         <f>A76+1</f>
         <v>75</v>
       </c>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="10">
+      <c r="A78" s="9">
         <f>A77+1</f>
         <v>76</v>
       </c>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="10">
+      <c r="A79" s="9">
         <f>A78+1</f>
         <v>77</v>
       </c>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="10">
+      <c r="A80" s="9">
         <f>A79+1</f>
         <v>78</v>
       </c>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="10">
+      <c r="A81" s="9">
         <f>A80+1</f>
         <v>79</v>
       </c>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="10">
+      <c r="A82" s="9">
         <f>A81+1</f>
         <v>80</v>
       </c>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="10">
+      <c r="A83" s="9">
         <f>A82+1</f>
         <v>81</v>
       </c>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="10">
+      <c r="A84" s="9">
         <f>A83+1</f>
         <v>82</v>
       </c>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="10">
+      <c r="A85" s="9">
         <f>A84+1</f>
         <v>83</v>
       </c>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="10">
+      <c r="A86" s="9">
         <f>A85+1</f>
         <v>84</v>
       </c>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="10">
+      <c r="A87" s="9">
         <f>A86+1</f>
         <v>85</v>
       </c>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="10">
+      <c r="A88" s="9">
         <f>A87+1</f>
         <v>86</v>
       </c>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="10">
+      <c r="A89" s="9">
         <f>A88+1</f>
         <v>87</v>
       </c>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="10">
+      <c r="A90" s="9">
         <f>A89+1</f>
         <v>88</v>
       </c>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="10">
+      <c r="A91" s="9">
         <f>A90+1</f>
         <v>89</v>
       </c>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="10">
+      <c r="A92" s="9">
         <f>A91+1</f>
         <v>90</v>
       </c>
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="10">
+      <c r="A93" s="9">
         <f>A92+1</f>
         <v>91</v>
       </c>
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="10">
+      <c r="A94" s="9">
         <f>A93+1</f>
         <v>92</v>
       </c>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="10">
+      <c r="A95" s="9">
         <f>A94+1</f>
         <v>93</v>
       </c>
-      <c r="B95" s="10"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="10">
+      <c r="A96" s="9">
         <f>A95+1</f>
         <v>94</v>
       </c>
-      <c r="B96" s="10"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="10">
+      <c r="A97" s="9">
         <f>A96+1</f>
         <v>95</v>
       </c>
-      <c r="B97" s="10"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="10">
+      <c r="A98" s="9">
         <f>A97+1</f>
         <v>96</v>
       </c>
-      <c r="B98" s="10"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="10">
+      <c r="A99" s="9">
         <f>A98+1</f>
         <v>97</v>
       </c>
-      <c r="B99" s="10"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="10">
+      <c r="A100" s="9">
         <f>A99+1</f>
         <v>98</v>
       </c>
-      <c r="B100" s="10"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="10">
+      <c r="A101" s="9">
         <f>A100+1</f>
         <v>99</v>
       </c>
-      <c r="B101" s="10"/>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="10">
+      <c r="A102" s="9">
         <f>A101+1</f>
         <v>100</v>
       </c>
-      <c r="B102" s="10"/>
-      <c r="C102" s="10"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1531084501" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1531256919" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4354,16 +4248,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1531084501" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1531084501" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1531084501" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1531084501" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1531256919" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1531256919" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1531256919" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1531256919" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1531084501" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1531256919" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/template/FJ_Primergy/PRIMERGYチェックシート.xlsx
+++ b/template/FJ_Primergy/PRIMERGYチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="743"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="743" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="226">
   <si>
     <t>共通設定</t>
   </si>
@@ -233,12 +233,6 @@
   </si>
   <si>
     <t>iLO</t>
-  </si>
-  <si>
-    <t>nic_ip</t>
-  </si>
-  <si>
-    <t>Primergy</t>
   </si>
   <si>
     <t>検査対象</t>
@@ -854,12 +848,105 @@
   <si>
     <t>account.Primergy.Test.password = 'admin'</t>
   </si>
+  <si>
+    <t>10.40.6.11</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>network</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>CPUコア数</t>
+  </si>
+  <si>
+    <t>CPUクロック数</t>
+  </si>
+  <si>
+    <t>内臓ディスク</t>
+  </si>
+  <si>
+    <t>サブネット構成</t>
+  </si>
+  <si>
+    <t>ゲートウェイ構成</t>
+  </si>
+  <si>
+    <t>ボンディング構成</t>
+  </si>
+  <si>
+    <t>NTP</t>
+  </si>
+  <si>
+    <t>コンソール</t>
+  </si>
+  <si>
+    <t>パッケージ</t>
+  </si>
+  <si>
+    <t>_redmine:IAサーバ</t>
+  </si>
+  <si>
+    <t>cpu_core</t>
+  </si>
+  <si>
+    <t>mhz</t>
+  </si>
+  <si>
+    <t>net_subnet</t>
+  </si>
+  <si>
+    <t>net_route</t>
+  </si>
+  <si>
+    <t>net_bond</t>
+  </si>
+  <si>
+    <t>ntp</t>
+  </si>
+  <si>
+    <t>runlevel.console</t>
+  </si>
+  <si>
+    <t>packages.requirements</t>
+  </si>
+  <si>
+    <t>cpu_socket</t>
+  </si>
+  <si>
+    <t>network.subnet</t>
+  </si>
+  <si>
+    <t>network.gw</t>
+  </si>
+  <si>
+    <t>nic_teaming</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>rimergy</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -915,8 +1002,17 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -937,24 +1033,41 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1153,8 +1266,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1167,8 +1323,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1208,65 +1367,117 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="出力" xfId="4" builtinId="21"/>
     <cellStyle name="説明文" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="標準 2" xfId="2"/>
@@ -1586,10 +1797,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P75"/>
+  <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80:C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1610,1104 +1821,1605 @@
     <col min="1030" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1"/>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="36"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="38"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="38"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="21"/>
+      <c r="B4" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="38"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="38"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="38"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="38"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="38"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="38"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="38"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4"/>
-      <c r="B4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5"/>
-      <c r="B5" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="38"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="38"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="C5"/>
-      <c r="D5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="38"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="21"/>
+      <c r="B14" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9"/>
-      <c r="B9" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="38"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="38"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="C9"/>
-      <c r="D9"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="38"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13"/>
-      <c r="B13" t="s">
+      <c r="D17" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="38"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="38"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="21"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="38"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A20" s="21"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="C13"/>
-      <c r="D13"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14"/>
-      <c r="B14" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14"/>
-      <c r="D14"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16" t="s">
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="38"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="38"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="21"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="38"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="21"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="38"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A24" s="21"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="38"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="38"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="38"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A27" s="21"/>
+      <c r="B27" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="38"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A28" s="39"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="38"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A29" s="39"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="41"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A30" s="39"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17" t="s">
-        <v>162</v>
-      </c>
-      <c r="D17" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18" t="s">
-        <v>164</v>
-      </c>
-      <c r="D18" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19" t="s">
-        <v>166</v>
-      </c>
-      <c r="D19" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20" t="s">
-        <v>168</v>
-      </c>
-      <c r="D20" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21" t="s">
-        <v>169</v>
-      </c>
-      <c r="D21" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22" t="s">
-        <v>171</v>
-      </c>
-      <c r="D22" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23" t="s">
-        <v>173</v>
-      </c>
-      <c r="D23" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24" t="s">
+      <c r="D30" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="M30" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="N30" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="O30" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="P30" s="41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A31" s="39"/>
+      <c r="B31" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="N31" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O31" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="P31" s="41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A32" s="39"/>
+      <c r="B32" s="42">
+        <v>1</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="43"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="39"/>
+      <c r="B33" s="42">
+        <v>2</v>
+      </c>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="43"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="39"/>
+      <c r="B34" s="42">
+        <v>3</v>
+      </c>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="43"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="39"/>
+      <c r="B35" s="42">
+        <v>4</v>
+      </c>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="43"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="39"/>
+      <c r="B36" s="42">
+        <v>5</v>
+      </c>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="43"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="39"/>
+      <c r="B37" s="42">
+        <v>6</v>
+      </c>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="43"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="39"/>
+      <c r="B38" s="42">
+        <v>7</v>
+      </c>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="43"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="39"/>
+      <c r="B39" s="42">
+        <v>8</v>
+      </c>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="43"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A40" s="39"/>
+      <c r="B40" s="42">
+        <v>9</v>
+      </c>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="43"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A41" s="39"/>
+      <c r="B41" s="42">
+        <v>10</v>
+      </c>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="43"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A42" s="39"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="38"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A43" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="D24" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25" t="s">
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="38"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A44" s="21"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="38"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A45" s="21"/>
+      <c r="B45" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="D25" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27"/>
-      <c r="B27" t="s">
-        <v>175</v>
-      </c>
-      <c r="C27"/>
-      <c r="D27"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="O30" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="P30" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B31" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="N31" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O31" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P31" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B32" s="7">
-        <v>1</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B33" s="7">
-        <v>2</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B34" s="7">
-        <v>3</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B35" s="7">
-        <v>4</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B36" s="7">
-        <v>5</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B37" s="7">
-        <v>6</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B38" s="7">
-        <v>7</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B39" s="7">
-        <v>8</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B40" s="7">
-        <v>9</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B41" s="7">
-        <v>10</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="38"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A46" s="21"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="38"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A47" s="21"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="37"/>
+      <c r="P47" s="38"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A48" s="21"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="37"/>
+      <c r="P48" s="38"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A49" s="21"/>
+      <c r="B49" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
-      <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
-      <c r="M43"/>
-      <c r="N43"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A44"/>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
-      <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44"/>
-      <c r="M44"/>
-      <c r="N44"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A45"/>
-      <c r="B45" t="s">
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="37"/>
+      <c r="P49" s="38"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A50" s="21"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="38"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A51" s="21"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="37"/>
+      <c r="P51" s="38"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A52" s="21"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="37"/>
+      <c r="P52" s="38"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A53" s="21"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="37"/>
+      <c r="P53" s="38"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A54" s="21"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="37"/>
+      <c r="P54" s="38"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A55" s="21"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="37"/>
+      <c r="P55" s="38"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A56" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
-      <c r="J45"/>
-      <c r="K45"/>
-      <c r="L45"/>
-      <c r="M45"/>
-      <c r="N45"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A46"/>
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46"/>
-      <c r="N46"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A47"/>
-      <c r="B47"/>
-      <c r="C47" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="21"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A48"/>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48"/>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48"/>
-      <c r="I48"/>
-      <c r="J48"/>
-      <c r="K48"/>
-      <c r="L48"/>
-      <c r="M48"/>
-      <c r="N48"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A49"/>
-      <c r="B49" t="s">
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="37"/>
+      <c r="P56" s="38"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A57" s="21"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="37"/>
+      <c r="P57" s="38"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A58" s="21"/>
+      <c r="B58" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49"/>
-      <c r="I49"/>
-      <c r="J49"/>
-      <c r="K49"/>
-      <c r="L49"/>
-      <c r="M49"/>
-      <c r="N49"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A50"/>
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
-      <c r="I50"/>
-      <c r="J50"/>
-      <c r="K50"/>
-      <c r="L50"/>
-      <c r="M50"/>
-      <c r="N50"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A51"/>
-      <c r="B51"/>
-      <c r="C51" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="24"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A52"/>
-      <c r="B52"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="26"/>
-      <c r="M52" s="26"/>
-      <c r="N52" s="27"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A53"/>
-      <c r="B53"/>
-      <c r="C53" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="26"/>
-      <c r="N53" s="27"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A54"/>
-      <c r="B54"/>
-      <c r="C54" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="30"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A55"/>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55"/>
-      <c r="K55"/>
-      <c r="L55"/>
-      <c r="M55"/>
-      <c r="N55"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="37"/>
+      <c r="P58" s="38"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A59" s="21"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="37"/>
+      <c r="P59" s="38"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A60" s="21"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="37"/>
+      <c r="P60" s="38"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A61" s="21"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="22"/>
+      <c r="O61" s="37"/>
+      <c r="P61" s="38"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A62" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="B56"/>
-      <c r="C56"/>
-      <c r="D56"/>
-      <c r="E56"/>
-      <c r="F56"/>
-      <c r="G56"/>
-      <c r="H56"/>
-      <c r="I56"/>
-      <c r="J56"/>
-      <c r="K56"/>
-      <c r="L56"/>
-      <c r="M56"/>
-      <c r="N56"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A57"/>
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57"/>
-      <c r="I57"/>
-      <c r="J57"/>
-      <c r="K57"/>
-      <c r="L57"/>
-      <c r="M57"/>
-      <c r="N57"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A58"/>
-      <c r="B58" t="s">
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="37"/>
+      <c r="P62" s="38"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A63" s="21"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="22"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="22"/>
+      <c r="O63" s="37"/>
+      <c r="P63" s="38"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A64" s="21"/>
+      <c r="B64" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="H58"/>
-      <c r="I58"/>
-      <c r="J58"/>
-      <c r="K58"/>
-      <c r="L58"/>
-      <c r="M58"/>
-      <c r="N58"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A59"/>
-      <c r="B59"/>
-      <c r="C59"/>
-      <c r="D59"/>
-      <c r="E59"/>
-      <c r="F59"/>
-      <c r="G59"/>
-      <c r="H59"/>
-      <c r="I59"/>
-      <c r="J59"/>
-      <c r="K59"/>
-      <c r="L59"/>
-      <c r="M59"/>
-      <c r="N59"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A60"/>
-      <c r="B60"/>
-      <c r="C60" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="20"/>
-      <c r="N60" s="21"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A61"/>
-      <c r="B61"/>
-      <c r="C61"/>
-      <c r="D61"/>
-      <c r="E61"/>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="H61"/>
-      <c r="I61"/>
-      <c r="J61"/>
-      <c r="K61"/>
-      <c r="L61"/>
-      <c r="M61"/>
-      <c r="N61"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="22"/>
+      <c r="O64" s="37"/>
+      <c r="P64" s="38"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A65" s="21"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="22"/>
+      <c r="O65" s="37"/>
+      <c r="P65" s="38"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A66" s="21"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62"/>
-      <c r="G62"/>
-      <c r="H62"/>
-      <c r="I62"/>
-      <c r="J62"/>
-      <c r="K62"/>
-      <c r="L62"/>
-      <c r="M62"/>
-      <c r="N62"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A63"/>
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
-      <c r="J63"/>
-      <c r="K63"/>
-      <c r="L63"/>
-      <c r="M63"/>
-      <c r="N63"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A64"/>
-      <c r="B64" t="s">
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="37"/>
+      <c r="P66" s="38"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A67" s="21"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="22"/>
+      <c r="O67" s="37"/>
+      <c r="P67" s="38"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A68" s="21"/>
+      <c r="B68" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="C64"/>
-      <c r="D64"/>
-      <c r="E64"/>
-      <c r="F64"/>
-      <c r="G64"/>
-      <c r="H64"/>
-      <c r="I64"/>
-      <c r="J64"/>
-      <c r="K64"/>
-      <c r="L64"/>
-      <c r="M64"/>
-      <c r="N64"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A65"/>
-      <c r="B65"/>
-      <c r="C65"/>
-      <c r="D65"/>
-      <c r="E65"/>
-      <c r="F65"/>
-      <c r="G65"/>
-      <c r="H65"/>
-      <c r="I65"/>
-      <c r="J65"/>
-      <c r="K65"/>
-      <c r="L65"/>
-      <c r="M65"/>
-      <c r="N65"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A66"/>
-      <c r="B66"/>
-      <c r="C66" s="19" t="s">
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="22"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="22"/>
+      <c r="O68" s="37"/>
+      <c r="P68" s="38"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A69" s="21"/>
+      <c r="B69" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="20"/>
-      <c r="L66" s="20"/>
-      <c r="M66" s="20"/>
-      <c r="N66" s="21"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A67"/>
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="D67"/>
-      <c r="E67"/>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="H67"/>
-      <c r="I67"/>
-      <c r="J67"/>
-      <c r="K67"/>
-      <c r="L67"/>
-      <c r="M67"/>
-      <c r="N67"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A68"/>
-      <c r="B68" t="s">
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="37"/>
+      <c r="P69" s="38"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A70" s="21"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="22"/>
+      <c r="M70" s="22"/>
+      <c r="N70" s="22"/>
+      <c r="O70" s="37"/>
+      <c r="P70" s="38"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A71" s="21"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="C68"/>
-      <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68"/>
-      <c r="G68"/>
-      <c r="H68"/>
-      <c r="I68"/>
-      <c r="J68"/>
-      <c r="K68"/>
-      <c r="L68"/>
-      <c r="M68"/>
-      <c r="N68"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A69"/>
-      <c r="B69" t="s">
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="37"/>
+      <c r="P71" s="38"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A72" s="21"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="22"/>
+      <c r="O72" s="37"/>
+      <c r="P72" s="38"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A73" s="21"/>
+      <c r="B73" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="E69"/>
-      <c r="F69"/>
-      <c r="G69"/>
-      <c r="H69"/>
-      <c r="I69"/>
-      <c r="J69"/>
-      <c r="K69"/>
-      <c r="L69"/>
-      <c r="M69"/>
-      <c r="N69"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A70"/>
-      <c r="B70"/>
-      <c r="C70"/>
-      <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70"/>
-      <c r="G70"/>
-      <c r="H70"/>
-      <c r="I70"/>
-      <c r="J70"/>
-      <c r="K70"/>
-      <c r="L70"/>
-      <c r="M70"/>
-      <c r="N70"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A71"/>
-      <c r="B71"/>
-      <c r="C71" s="19" t="s">
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="22"/>
+      <c r="O73" s="37"/>
+      <c r="P73" s="38"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A74" s="21"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="22"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="22"/>
+      <c r="O74" s="37"/>
+      <c r="P74" s="38"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A75" s="21"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="20"/>
-      <c r="L71" s="20"/>
-      <c r="M71" s="20"/>
-      <c r="N71" s="21"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A72"/>
-      <c r="B72"/>
-      <c r="C72"/>
-      <c r="D72"/>
-      <c r="E72"/>
-      <c r="F72"/>
-      <c r="G72"/>
-      <c r="H72"/>
-      <c r="I72"/>
-      <c r="J72"/>
-      <c r="K72"/>
-      <c r="L72"/>
-      <c r="M72"/>
-      <c r="N72"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A73"/>
-      <c r="B73" t="s">
-        <v>195</v>
-      </c>
-      <c r="C73"/>
-      <c r="D73"/>
-      <c r="E73"/>
-      <c r="F73"/>
-      <c r="G73"/>
-      <c r="H73"/>
-      <c r="I73"/>
-      <c r="J73"/>
-      <c r="K73"/>
-      <c r="L73"/>
-      <c r="M73"/>
-      <c r="N73"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A74"/>
-      <c r="B74"/>
-      <c r="C74"/>
-      <c r="D74"/>
-      <c r="E74"/>
-      <c r="F74"/>
-      <c r="G74"/>
-      <c r="H74"/>
-      <c r="I74"/>
-      <c r="J74"/>
-      <c r="K74"/>
-      <c r="L74"/>
-      <c r="M74"/>
-      <c r="N74"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A75"/>
-      <c r="B75"/>
-      <c r="C75" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="20"/>
-      <c r="K75" s="20"/>
-      <c r="L75" s="20"/>
-      <c r="M75" s="20"/>
-      <c r="N75" s="21"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="16"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="37"/>
+      <c r="P75" s="38"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A76" s="39"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="37"/>
+      <c r="K76" s="37"/>
+      <c r="L76" s="37"/>
+      <c r="M76" s="37"/>
+      <c r="N76" s="37"/>
+      <c r="O76" s="37"/>
+      <c r="P76" s="38"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A77" s="39"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="37"/>
+      <c r="G77" s="37"/>
+      <c r="H77" s="37"/>
+      <c r="I77" s="37"/>
+      <c r="J77" s="37"/>
+      <c r="K77" s="37"/>
+      <c r="L77" s="37"/>
+      <c r="M77" s="37"/>
+      <c r="N77" s="37"/>
+      <c r="O77" s="37"/>
+      <c r="P77" s="38"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A78" s="44"/>
+      <c r="B78" s="45"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="45"/>
+      <c r="E78" s="45"/>
+      <c r="F78" s="45"/>
+      <c r="G78" s="45"/>
+      <c r="H78" s="45"/>
+      <c r="I78" s="45"/>
+      <c r="J78" s="45"/>
+      <c r="K78" s="45"/>
+      <c r="L78" s="45"/>
+      <c r="M78" s="45"/>
+      <c r="N78" s="45"/>
+      <c r="O78" s="45"/>
+      <c r="P78" s="46"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="C80" s="47"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C81" s="47" t="s">
+        <v>225</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
@@ -2722,10 +3434,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2736,39 +3448,31 @@
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="16.5" style="1" customWidth="1"/>
-    <col min="10" max="15" width="11.625" style="1" customWidth="1"/>
-    <col min="16" max="1024" width="8.75" style="1" customWidth="1"/>
-    <col min="1025" max="1026" width="11.625" style="1" customWidth="1"/>
-    <col min="1027" max="1027" width="9" style="1" customWidth="1"/>
-    <col min="1028" max="16384" width="9" style="1"/>
+    <col min="7" max="8" width="16.5" style="1" customWidth="1"/>
+    <col min="9" max="10" width="11.625" style="1" customWidth="1"/>
+    <col min="11" max="1019" width="8.75" style="1" customWidth="1"/>
+    <col min="1020" max="1021" width="11.625" style="1" customWidth="1"/>
+    <col min="1022" max="1022" width="9" style="1" customWidth="1"/>
+    <col min="1023" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="6"/>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
       <c r="B2" s="6" t="s">
         <v>3</v>
@@ -2786,34 +3490,19 @@
         <v>7</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
@@ -2833,34 +3522,19 @@
         <v>21</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -2871,7 +3545,7 @@
         <v>32</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>34</v>
@@ -2883,13 +3557,8 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -2902,13 +3571,8 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -2921,13 +3585,8 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -2940,13 +3599,8 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -2959,13 +3613,8 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -2978,13 +3627,8 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -2997,13 +3641,8 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -3016,13 +3655,8 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -3035,13 +3669,8 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -3054,13 +3683,8 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -3073,13 +3697,8 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>12</v>
       </c>
@@ -3092,13 +3711,8 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>13</v>
       </c>
@@ -3111,13 +3725,8 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>14</v>
       </c>
@@ -3130,13 +3739,8 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>15</v>
       </c>
@@ -3149,13 +3753,8 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>16</v>
       </c>
@@ -3168,13 +3767,8 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <v>17</v>
       </c>
@@ -3187,13 +3781,8 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>18</v>
       </c>
@@ -3206,13 +3795,8 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="7">
         <v>19</v>
       </c>
@@ -3225,13 +3809,8 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <v>20</v>
       </c>
@@ -3244,26 +3823,30 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
+  <mergeCells count="2">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>利用手順!$C$80:$C$81</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:B23</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1531256919" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
@@ -3276,348 +3859,574 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK15"/>
+  <dimension ref="A1:AMK16"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.25" style="3" customWidth="1"/>
     <col min="2" max="8" width="11.875" style="3" customWidth="1"/>
-    <col min="9" max="11" width="15.875" style="3" customWidth="1"/>
-    <col min="12" max="14" width="11.875" style="3" customWidth="1"/>
-    <col min="15" max="1025" width="9" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="22.125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="12.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9" style="3" customWidth="1"/>
+    <col min="19" max="19" width="13.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18" style="3" customWidth="1"/>
+    <col min="21" max="1025" width="9" style="3" customWidth="1"/>
     <col min="1026" max="1026" width="9" style="2" customWidth="1"/>
     <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A1"/>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A3" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="J3" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="K3" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="L3" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="M3" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="N3" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="P3" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q3" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="R3" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="S3" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="T3" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="U3" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="V3" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="W3" s="34" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13" t="s">
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="V4" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="W4" s="30" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="32" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F6" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G6" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H6" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="J6" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="K6" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="L6" s="29"/>
+      <c r="M6" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="14" t="s">
+      <c r="N6" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="O6" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="P6" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="S6" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="T6" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13" t="s">
+    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F7" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G7" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H7" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="J7" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="K7" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="L7" s="29"/>
+      <c r="M7" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="14" t="s">
+      <c r="N7" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="30" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13" t="s">
+    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="14" t="s">
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="30" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13" t="s">
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-    </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-    </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+    </row>
+    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
@@ -3655,16 +4464,16 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -3672,16 +4481,16 @@
         <v>36</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -3729,11 +4538,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK40"/>
+  <dimension ref="A1:AMK41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3777,615 +4584,635 @@
         <v>34</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="E5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
+      <c r="A9" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="B9" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="F9" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
-        <v>79</v>
-      </c>
+      <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="5"/>
+      <c r="A21" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="B21" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
       <c r="B23" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
       <c r="B24" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
       <c r="B27" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
       <c r="B29" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
       <c r="B30" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
       <c r="B31" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
       <c r="B32" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
       <c r="B33" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="5"/>
       <c r="B34" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="5"/>
       <c r="B35" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="5"/>
       <c r="B36" s="5" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="5"/>
       <c r="B37" s="5" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="5"/>
       <c r="B38" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="5"/>
       <c r="B39" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="5"/>
       <c r="B40" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
@@ -4425,7 +5252,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>35</v>
@@ -4451,45 +5278,45 @@
         <v>16</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>120</v>
-      </c>
       <c r="G2" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="E3" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="G3" s="13" t="s">
         <v>155</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">

--- a/template/FJ_Primergy/PRIMERGYチェックシート.xlsx
+++ b/template/FJ_Primergy/PRIMERGYチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="743" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="743"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="232">
   <si>
     <t>共通設定</t>
   </si>
@@ -939,6 +939,36 @@
       </rPr>
       <t>rimergy</t>
     </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ntp0</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ntp1</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>NTP設定0</t>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>NTP設定1</t>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>report_xml</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>iRMCシステムレポート</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -1799,9 +1829,7 @@
   </sheetPr>
   <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80:C81"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3436,9 +3464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4538,9 +4564,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK41"/>
+  <dimension ref="A1:AMK44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5207,6 +5235,60 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A42" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A43" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A44" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/template/FJ_Primergy/PRIMERGYチェックシート.xlsx
+++ b/template/FJ_Primergy/PRIMERGYチェックシート.xlsx
@@ -20,7 +20,7 @@
     <sheet name="テンプレート(Primergy)" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">利用手順!$A$1:$P$75</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">利用手順!$A$1:$P$79</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="236">
   <si>
     <t>共通設定</t>
   </si>
@@ -516,9 +516,6 @@
   </si>
   <si>
     <t>2. 検査シート編集</t>
-  </si>
-  <si>
-    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
   </si>
   <si>
     <t>対象サーバ</t>
@@ -828,10 +825,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>getconfig -u db</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>notepad++ .\template\FJ_Primergy\config_primergy.groovy</t>
     <phoneticPr fontId="7"/>
   </si>
@@ -969,6 +962,39 @@
   </si>
   <si>
     <t>iRMCシステムレポート</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。(*)が必須入力項目となります。</t>
+    <rPh sb="40" eb="42">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>(*)</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Redmine プラグインデータへのロード</t>
+  </si>
+  <si>
+    <t>getconfig -u db</t>
+  </si>
+  <si>
+    <t>Redmine チケット登録</t>
+  </si>
+  <si>
+    <t>getconfig -c .\template\FJ_Primergy\config_primergy.groovy -rp {Redmineプロジェクト名}</t>
+    <rPh sb="77" eb="78">
+      <t>メイ</t>
+    </rPh>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -1097,7 +1123,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1339,6 +1365,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1357,7 +1407,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1503,6 +1553,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1827,7 +1895,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P81"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -1908,7 +1976,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="21"/>
       <c r="B4" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -1928,7 +1996,7 @@
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="21"/>
       <c r="B5" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
@@ -2004,7 +2072,7 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="21"/>
       <c r="B9" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -2080,7 +2148,7 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="21"/>
       <c r="B13" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
@@ -2100,7 +2168,7 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="21"/>
       <c r="B14" s="22" t="s">
-        <v>159</v>
+        <v>230</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
@@ -2137,12 +2205,14 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
+      <c r="B16" s="22" t="s">
+        <v>231</v>
+      </c>
       <c r="C16" s="22" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E16" s="37"/>
       <c r="F16" s="37"/>
@@ -2159,12 +2229,14 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
+      <c r="B17" s="22" t="s">
+        <v>231</v>
+      </c>
       <c r="C17" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>160</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>161</v>
       </c>
       <c r="E17" s="37"/>
       <c r="F17" s="37"/>
@@ -2181,12 +2253,14 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
+      <c r="B18" s="22" t="s">
+        <v>231</v>
+      </c>
       <c r="C18" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="22" t="s">
         <v>162</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>163</v>
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="37"/>
@@ -2203,12 +2277,14 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
+      <c r="B19" s="22" t="s">
+        <v>231</v>
+      </c>
       <c r="C19" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="22" t="s">
         <v>164</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>165</v>
       </c>
       <c r="E19" s="37"/>
       <c r="F19" s="37"/>
@@ -2227,10 +2303,10 @@
       <c r="A20" s="21"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E20" s="37"/>
       <c r="F20" s="37"/>
@@ -2249,10 +2325,10 @@
       <c r="A21" s="21"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="22" t="s">
         <v>167</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>168</v>
       </c>
       <c r="E21" s="37"/>
       <c r="F21" s="37"/>
@@ -2271,10 +2347,10 @@
       <c r="A22" s="21"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" s="22" t="s">
         <v>169</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>170</v>
       </c>
       <c r="E22" s="37"/>
       <c r="F22" s="37"/>
@@ -2293,10 +2369,10 @@
       <c r="A23" s="21"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" s="22" t="s">
         <v>171</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>172</v>
       </c>
       <c r="E23" s="37"/>
       <c r="F23" s="37"/>
@@ -2315,10 +2391,10 @@
       <c r="A24" s="21"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E24" s="37"/>
       <c r="F24" s="37"/>
@@ -2337,10 +2413,10 @@
       <c r="A25" s="21"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E25" s="37"/>
       <c r="F25" s="37"/>
@@ -2376,7 +2452,7 @@
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="21"/>
       <c r="B27" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -2759,7 +2835,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A43" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
@@ -2798,7 +2874,7 @@
     <row r="45" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A45" s="21"/>
       <c r="B45" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C45" s="22"/>
       <c r="D45" s="22"/>
@@ -2837,7 +2913,7 @@
       <c r="A47" s="21"/>
       <c r="B47" s="22"/>
       <c r="C47" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
@@ -2874,7 +2950,7 @@
     <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A49" s="21"/>
       <c r="B49" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
@@ -2913,7 +2989,7 @@
       <c r="A51" s="21"/>
       <c r="B51" s="22"/>
       <c r="C51" s="18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
@@ -2951,7 +3027,7 @@
       <c r="A53" s="21"/>
       <c r="B53" s="22"/>
       <c r="C53" s="21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
@@ -2971,7 +3047,7 @@
       <c r="A54" s="21"/>
       <c r="B54" s="22"/>
       <c r="C54" s="24" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D54" s="25"/>
       <c r="E54" s="25"/>
@@ -3007,7 +3083,7 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A56" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
@@ -3046,7 +3122,7 @@
     <row r="58" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A58" s="21"/>
       <c r="B58" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C58" s="22"/>
       <c r="D58" s="22"/>
@@ -3085,7 +3161,7 @@
       <c r="A60" s="21"/>
       <c r="B60" s="22"/>
       <c r="C60" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D60" s="16"/>
       <c r="E60" s="16"/>
@@ -3121,7 +3197,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A62" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B62" s="22"/>
       <c r="C62" s="22"/>
@@ -3160,7 +3236,7 @@
     <row r="64" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A64" s="21"/>
       <c r="B64" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C64" s="22"/>
       <c r="D64" s="22"/>
@@ -3199,7 +3275,7 @@
       <c r="A66" s="21"/>
       <c r="B66" s="22"/>
       <c r="C66" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D66" s="16"/>
       <c r="E66" s="16"/>
@@ -3236,7 +3312,7 @@
     <row r="68" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A68" s="21"/>
       <c r="B68" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C68" s="22"/>
       <c r="D68" s="22"/>
@@ -3256,7 +3332,7 @@
     <row r="69" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A69" s="21"/>
       <c r="B69" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C69" s="22"/>
       <c r="D69" s="22"/>
@@ -3295,7 +3371,7 @@
       <c r="A71" s="21"/>
       <c r="B71" s="22"/>
       <c r="C71" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D71" s="16"/>
       <c r="E71" s="16"/>
@@ -3332,7 +3408,7 @@
     <row r="73" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A73" s="21"/>
       <c r="B73" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C73" s="22"/>
       <c r="D73" s="22"/>
@@ -3350,7 +3426,7 @@
       <c r="P73" s="38"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A74" s="21"/>
+      <c r="A74" s="22"/>
       <c r="B74" s="22"/>
       <c r="C74" s="22"/>
       <c r="D74" s="22"/>
@@ -3365,88 +3441,125 @@
       <c r="M74" s="22"/>
       <c r="N74" s="22"/>
       <c r="O74" s="37"/>
-      <c r="P74" s="38"/>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A75" s="21"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="16"/>
-      <c r="L75" s="16"/>
-      <c r="M75" s="16"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="37"/>
-      <c r="P75" s="38"/>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A76" s="39"/>
-      <c r="B76" s="37"/>
-      <c r="C76" s="37"/>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="37"/>
-      <c r="K76" s="37"/>
-      <c r="L76" s="37"/>
-      <c r="M76" s="37"/>
-      <c r="N76" s="37"/>
-      <c r="O76" s="37"/>
-      <c r="P76" s="38"/>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A77" s="39"/>
-      <c r="B77" s="37"/>
-      <c r="C77" s="37"/>
-      <c r="D77" s="37"/>
-      <c r="E77" s="37"/>
-      <c r="F77" s="37"/>
-      <c r="G77" s="37"/>
-      <c r="H77" s="37"/>
-      <c r="I77" s="37"/>
-      <c r="J77" s="37"/>
-      <c r="K77" s="37"/>
-      <c r="L77" s="37"/>
-      <c r="M77" s="37"/>
-      <c r="N77" s="37"/>
-      <c r="O77" s="37"/>
-      <c r="P77" s="38"/>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A78" s="44"/>
-      <c r="B78" s="45"/>
-      <c r="C78" s="45"/>
-      <c r="D78" s="45"/>
-      <c r="E78" s="45"/>
-      <c r="F78" s="45"/>
-      <c r="G78" s="45"/>
-      <c r="H78" s="45"/>
-      <c r="I78" s="45"/>
-      <c r="J78" s="45"/>
-      <c r="K78" s="45"/>
-      <c r="L78" s="45"/>
-      <c r="M78" s="45"/>
-      <c r="N78" s="45"/>
-      <c r="O78" s="45"/>
-      <c r="P78" s="46"/>
+      <c r="P74" s="37"/>
+    </row>
+    <row r="75" spans="1:16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="49"/>
+      <c r="B75" s="49"/>
+      <c r="C75" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="D75" s="49"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="49"/>
+      <c r="I75" s="49"/>
+      <c r="J75" s="49"/>
+      <c r="K75" s="49"/>
+      <c r="L75" s="49"/>
+      <c r="M75" s="49"/>
+      <c r="N75" s="49"/>
+      <c r="O75" s="49"/>
+    </row>
+    <row r="76" spans="1:16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="49"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="D76" s="51"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="51"/>
+      <c r="J76" s="51"/>
+      <c r="K76" s="51"/>
+      <c r="L76" s="51"/>
+      <c r="M76" s="51"/>
+      <c r="N76" s="52"/>
+      <c r="O76" s="49"/>
+    </row>
+    <row r="77" spans="1:16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="49"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="49"/>
+      <c r="E77" s="49"/>
+      <c r="F77" s="49"/>
+      <c r="G77" s="49"/>
+      <c r="H77" s="49"/>
+      <c r="I77" s="49"/>
+      <c r="J77" s="49"/>
+      <c r="K77" s="49"/>
+      <c r="L77" s="49"/>
+      <c r="M77" s="49"/>
+      <c r="N77" s="49"/>
+      <c r="O77" s="49"/>
+    </row>
+    <row r="78" spans="1:16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="49"/>
+      <c r="B78" s="49"/>
+      <c r="C78" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="D78" s="49"/>
+      <c r="E78" s="49"/>
+      <c r="F78" s="49"/>
+      <c r="G78" s="49"/>
+      <c r="H78" s="49"/>
+      <c r="I78" s="49"/>
+      <c r="J78" s="49"/>
+      <c r="K78" s="49"/>
+      <c r="L78" s="49"/>
+      <c r="M78" s="49"/>
+      <c r="N78" s="49"/>
+      <c r="O78" s="49"/>
+    </row>
+    <row r="79" spans="1:16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="49"/>
+      <c r="B79" s="49"/>
+      <c r="C79" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="D79" s="53"/>
+      <c r="E79" s="53"/>
+      <c r="F79" s="53"/>
+      <c r="G79" s="53"/>
+      <c r="H79" s="53"/>
+      <c r="I79" s="53"/>
+      <c r="J79" s="53"/>
+      <c r="K79" s="53"/>
+      <c r="L79" s="53"/>
+      <c r="M79" s="53"/>
+      <c r="N79" s="54"/>
+      <c r="O79" s="49"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="C80" s="47"/>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C81" s="47" t="s">
-        <v>225</v>
+      <c r="A80" s="44"/>
+      <c r="B80" s="45"/>
+      <c r="C80" s="45"/>
+      <c r="D80" s="45"/>
+      <c r="E80" s="45"/>
+      <c r="F80" s="45"/>
+      <c r="G80" s="45"/>
+      <c r="H80" s="45"/>
+      <c r="I80" s="45"/>
+      <c r="J80" s="45"/>
+      <c r="K80" s="45"/>
+      <c r="L80" s="45"/>
+      <c r="M80" s="45"/>
+      <c r="N80" s="45"/>
+      <c r="O80" s="45"/>
+      <c r="P80" s="46"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C82" s="47"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C83" s="47" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -3571,7 +3684,7 @@
         <v>32</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>34</v>
@@ -3864,10 +3977,10 @@
   </headerFooter>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>利用手順!$C$80:$C$81</xm:f>
+            <xm:f>利用手順!$C$82:$C$83</xm:f>
           </x14:formula1>
           <xm:sqref>B4:B23</xm:sqref>
         </x14:dataValidation>
@@ -3981,10 +4094,10 @@
         <v>11</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J3" s="34" t="s">
         <v>42</v>
@@ -3993,31 +4106,31 @@
         <v>43</v>
       </c>
       <c r="L3" s="34" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M3" s="34" t="s">
         <v>44</v>
       </c>
       <c r="N3" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="P3" s="34" t="s">
         <v>205</v>
-      </c>
-      <c r="O3" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="P3" s="34" t="s">
-        <v>207</v>
       </c>
       <c r="Q3" s="34" t="s">
         <v>45</v>
       </c>
       <c r="R3" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="S3" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="T3" s="34" t="s">
         <v>208</v>
-      </c>
-      <c r="S3" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="T3" s="34" t="s">
-        <v>210</v>
       </c>
       <c r="U3" s="34" t="s">
         <v>46</v>
@@ -4100,7 +4213,7 @@
       <c r="U5" s="29"/>
       <c r="V5" s="29"/>
       <c r="W5" s="32" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
@@ -4120,10 +4233,10 @@
         <v>25</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J6" s="29" t="s">
         <v>26</v>
@@ -4136,23 +4249,23 @@
         <v>57</v>
       </c>
       <c r="N6" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="O6" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="P6" s="29" t="s">
         <v>214</v>
-      </c>
-      <c r="O6" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="P6" s="29" t="s">
-        <v>216</v>
       </c>
       <c r="Q6" s="29"/>
       <c r="R6" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="S6" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="T6" s="29" t="s">
         <v>217</v>
-      </c>
-      <c r="S6" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="T6" s="29" t="s">
-        <v>219</v>
       </c>
       <c r="U6" s="29"/>
       <c r="V6" s="29"/>
@@ -4177,10 +4290,10 @@
         <v>25</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J7" s="29" t="s">
         <v>61</v>
@@ -4193,17 +4306,17 @@
         <v>62</v>
       </c>
       <c r="N7" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="P7" s="29" t="s">
         <v>221</v>
-      </c>
-      <c r="O7" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="P7" s="29" t="s">
-        <v>223</v>
       </c>
       <c r="Q7" s="29"/>
       <c r="R7" s="29" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="S7" s="29"/>
       <c r="T7" s="29"/>
@@ -4228,7 +4341,7 @@
       <c r="J8" s="29"/>
       <c r="K8" s="29"/>
       <c r="L8" s="29" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M8" s="29"/>
       <c r="N8" s="29"/>
@@ -4688,7 +4801,7 @@
         <v>77</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>82</v>
@@ -5242,17 +5355,17 @@
         <v>77</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5260,17 +5373,17 @@
         <v>77</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>229</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -5278,17 +5391,17 @@
         <v>77</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/template/FJ_Primergy/PRIMERGYチェックシート.xlsx
+++ b/template/FJ_Primergy/PRIMERGYチェックシート.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="252">
   <si>
     <t>0. 事前準備</t>
   </si>
@@ -753,10 +753,6 @@
   </si>
   <si>
     <t>ネットワーク</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ファームウェア</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
@@ -785,6 +781,48 @@
     <rPh sb="4" eb="6">
       <t>セッテイ</t>
     </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>システム情報</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>BIOSバージョン</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>機種</t>
+    <rPh sb="0" eb="2">
+      <t>キシュ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>fwver.SDRRId</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>fwver.SystemBIOS</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>fwver.BMCFirmware</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>fwver.SDRRVersion</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ファームウェアバージョン</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>SDDRバージョン</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1460,13 +1498,13 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3522,19 +3560,19 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="6"/>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50" t="s">
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
@@ -4602,10 +4640,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AML44"/>
+  <dimension ref="A1:AML48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4623,7 +4661,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
-      <c r="B1" s="52"/>
+      <c r="B1" s="51"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -4632,7 +4670,7 @@
     </row>
     <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
-      <c r="B2" s="52"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -4641,7 +4679,7 @@
     </row>
     <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
-      <c r="B3" s="52"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -4652,7 +4690,7 @@
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>237</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -4672,64 +4710,56 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>239</v>
+      <c r="A5" s="5"/>
+      <c r="B5" s="50" t="s">
+        <v>243</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>154</v>
+        <v>245</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>153</v>
+        <v>246</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>152</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>238</v>
+      <c r="A6" s="5"/>
+      <c r="B6" s="50" t="s">
+        <v>243</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>157</v>
+        <v>244</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>156</v>
+        <v>247</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>152</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
-      <c r="B7" s="51" t="s">
-        <v>238</v>
+      <c r="B7" s="50" t="s">
+        <v>243</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>159</v>
+        <v>250</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>158</v>
+        <v>248</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>160</v>
+        <v>58</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
@@ -4737,24 +4767,20 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" s="51" t="s">
-        <v>238</v>
+      <c r="A8" s="5"/>
+      <c r="B8" s="50" t="s">
+        <v>243</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>157</v>
+        <v>251</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>161</v>
+        <v>249</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>152</v>
-      </c>
+      <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
         <v>157</v>
       </c>
@@ -4763,14 +4789,14 @@
       <c r="A9" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B9" s="51" t="s">
-        <v>240</v>
+      <c r="B9" s="50" t="s">
+        <v>243</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>155</v>
@@ -4779,686 +4805,774 @@
         <v>152</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="51" t="s">
-        <v>240</v>
+      <c r="A10" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>238</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>152</v>
+      </c>
       <c r="G10" s="5" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
-      <c r="B11" s="51" t="s">
-        <v>240</v>
+      <c r="B11" s="50" t="s">
+        <v>238</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="5"/>
-      <c r="B12" s="51" t="s">
-        <v>240</v>
+      <c r="A12" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>238</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="F12" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>152</v>
+      </c>
       <c r="G12" s="5" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
-      <c r="B13" s="51" t="s">
-        <v>240</v>
+      <c r="B13" s="50" t="s">
+        <v>239</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>155</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
-      <c r="B14" s="51" t="s">
-        <v>240</v>
+      <c r="B14" s="50" t="s">
+        <v>239</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>155</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
-      <c r="B15" s="51" t="s">
-        <v>240</v>
+      <c r="B15" s="50" t="s">
+        <v>239</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>155</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
-      <c r="B16" s="51" t="s">
-        <v>240</v>
+      <c r="B16" s="50" t="s">
+        <v>239</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>155</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
-      <c r="B17" s="51" t="s">
-        <v>240</v>
+      <c r="B17" s="50" t="s">
+        <v>239</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>155</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
-      <c r="B18" s="51" t="s">
-        <v>240</v>
+      <c r="B18" s="50" t="s">
+        <v>239</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>155</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
-      <c r="B19" s="51" t="s">
-        <v>240</v>
+      <c r="B19" s="50" t="s">
+        <v>239</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>155</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
-      <c r="B20" s="51" t="s">
-        <v>240</v>
+      <c r="B20" s="50" t="s">
+        <v>239</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>155</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B21" s="51" t="s">
-        <v>242</v>
+      <c r="A21" s="5"/>
+      <c r="B21" s="50" t="s">
+        <v>239</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>58</v>
+        <v>155</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B22" s="51" t="s">
-        <v>242</v>
+      <c r="A22" s="5"/>
+      <c r="B22" s="50" t="s">
+        <v>239</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>58</v>
+        <v>155</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B23" s="51" t="s">
-        <v>243</v>
+      <c r="A23" s="5"/>
+      <c r="B23" s="50" t="s">
+        <v>239</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>155</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="5"/>
-      <c r="B24" s="51" t="s">
-        <v>243</v>
+      <c r="A24" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>239</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F24" s="5"/>
+      <c r="F24" s="5" t="s">
+        <v>152</v>
+      </c>
       <c r="G24" s="5" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="5"/>
-      <c r="B25" s="51" t="s">
-        <v>243</v>
+      <c r="A25" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>241</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>155</v>
+        <v>58</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="5"/>
-      <c r="B26" s="51" t="s">
-        <v>243</v>
+      <c r="A26" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" s="50" t="s">
+        <v>241</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>155</v>
+        <v>58</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="5"/>
-      <c r="B27" s="51" t="s">
-        <v>243</v>
+      <c r="A27" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" s="50" t="s">
+        <v>242</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>155</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
-      <c r="B28" s="51" t="s">
-        <v>243</v>
+      <c r="B28" s="50" t="s">
+        <v>242</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>155</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
-      <c r="B29" s="51" t="s">
-        <v>243</v>
+      <c r="B29" s="50" t="s">
+        <v>242</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>155</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
-      <c r="B30" s="51" t="s">
-        <v>243</v>
+      <c r="B30" s="50" t="s">
+        <v>242</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>155</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
-      <c r="B31" s="51" t="s">
-        <v>241</v>
+      <c r="B31" s="50" t="s">
+        <v>242</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>155</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
-      <c r="B32" s="51" t="s">
-        <v>241</v>
+      <c r="B32" s="50" t="s">
+        <v>242</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>155</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
-      <c r="B33" s="51" t="s">
-        <v>241</v>
+      <c r="B33" s="50" t="s">
+        <v>242</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>155</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="5"/>
-      <c r="B34" s="51" t="s">
-        <v>241</v>
+      <c r="B34" s="50" t="s">
+        <v>242</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>155</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="5"/>
-      <c r="B35" s="51" t="s">
-        <v>241</v>
+      <c r="B35" s="50" t="s">
+        <v>240</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>155</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="5"/>
-      <c r="B36" s="51" t="s">
-        <v>241</v>
+      <c r="B36" s="50" t="s">
+        <v>240</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>155</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="5"/>
-      <c r="B37" s="51" t="s">
-        <v>241</v>
+      <c r="B37" s="50" t="s">
+        <v>240</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>155</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="5"/>
-      <c r="B38" s="51" t="s">
-        <v>241</v>
+      <c r="B38" s="50" t="s">
+        <v>240</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>155</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="5"/>
-      <c r="B39" s="51" t="s">
-        <v>241</v>
+      <c r="B39" s="50" t="s">
+        <v>240</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>155</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="5"/>
-      <c r="B40" s="51" t="s">
-        <v>241</v>
+      <c r="B40" s="50" t="s">
+        <v>240</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>155</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="5"/>
-      <c r="B41" s="51" t="s">
-        <v>241</v>
+      <c r="B41" s="50" t="s">
+        <v>240</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>155</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="5"/>
-      <c r="B42" s="51" t="s">
-        <v>241</v>
+      <c r="B42" s="50" t="s">
+        <v>240</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>155</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="5"/>
-      <c r="B43" s="51" t="s">
-        <v>241</v>
+      <c r="B43" s="50" t="s">
+        <v>240</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>155</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A44" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B44" s="51" t="s">
-        <v>241</v>
+      <c r="A44" s="5"/>
+      <c r="B44" s="50" t="s">
+        <v>240</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>58</v>
+        <v>155</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A45" s="5"/>
+      <c r="B45" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A46" s="5"/>
+      <c r="B46" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A47" s="5"/>
+      <c r="B47" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A48" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5" t="s">
         <v>230</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>

--- a/template/FJ_Primergy/PRIMERGYチェックシート.xlsx
+++ b/template/FJ_Primergy/PRIMERGYチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="743" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="743" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -3540,7 +3540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4642,18 +4642,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.375" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.875" style="3" customWidth="1"/>
     <col min="3" max="4" width="30.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="47.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="47.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="3" customWidth="1"/>
     <col min="8" max="9" width="8.5" style="3" customWidth="1"/>
     <col min="10" max="11" width="8.5" customWidth="1"/>
     <col min="12" max="1026" width="8.5" style="3" customWidth="1"/>
@@ -4700,13 +4698,13 @@
         <v>147</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4720,12 +4718,12 @@
       <c r="D5" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4739,12 +4737,12 @@
       <c r="D6" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4758,12 +4756,12 @@
       <c r="D7" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4777,12 +4775,12 @@
       <c r="D8" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4799,13 +4797,13 @@
         <v>153</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4822,13 +4820,13 @@
         <v>156</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4842,12 +4840,12 @@
       <c r="D11" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4864,13 +4862,13 @@
         <v>161</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4884,12 +4882,12 @@
       <c r="D13" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4903,12 +4901,12 @@
       <c r="D14" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4922,12 +4920,12 @@
       <c r="D15" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4941,12 +4939,12 @@
       <c r="D16" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4960,12 +4958,12 @@
       <c r="D17" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4979,12 +4977,12 @@
       <c r="D18" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4998,12 +4996,12 @@
       <c r="D19" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5017,12 +5015,12 @@
       <c r="D20" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5036,12 +5034,12 @@
       <c r="D21" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5055,12 +5053,12 @@
       <c r="D22" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5074,12 +5072,12 @@
       <c r="D23" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5096,13 +5094,13 @@
         <v>140</v>
       </c>
       <c r="E24" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5118,12 +5116,12 @@
       <c r="D25" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="5"/>
+      <c r="F25" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5139,12 +5137,12 @@
       <c r="D26" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="5"/>
+      <c r="F26" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5160,12 +5158,12 @@
       <c r="D27" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="5"/>
+      <c r="F27" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5179,12 +5177,12 @@
       <c r="D28" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5198,12 +5196,12 @@
       <c r="D29" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="5"/>
+      <c r="F29" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5217,12 +5215,12 @@
       <c r="D30" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="5"/>
+      <c r="F30" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5236,12 +5234,12 @@
       <c r="D31" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="5"/>
+      <c r="F31" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5255,12 +5253,12 @@
       <c r="D32" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="5"/>
+      <c r="F32" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5274,12 +5272,12 @@
       <c r="D33" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="5"/>
+      <c r="F33" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5293,12 +5291,12 @@
       <c r="D34" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="5"/>
+      <c r="F34" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5312,12 +5310,12 @@
       <c r="D35" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="5"/>
+      <c r="F35" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5331,12 +5329,12 @@
       <c r="D36" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="5"/>
+      <c r="F36" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5350,12 +5348,12 @@
       <c r="D37" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="5"/>
+      <c r="F37" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5369,12 +5367,12 @@
       <c r="D38" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="5"/>
+      <c r="F38" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5388,12 +5386,12 @@
       <c r="D39" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="5"/>
+      <c r="F39" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5407,12 +5405,12 @@
       <c r="D40" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="5"/>
+      <c r="F40" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G40" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5426,12 +5424,12 @@
       <c r="D41" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="5"/>
+      <c r="F41" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G41" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5445,12 +5443,12 @@
       <c r="D42" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="5"/>
+      <c r="F42" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5464,12 +5462,12 @@
       <c r="D43" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="5"/>
+      <c r="F43" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G43" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5483,12 +5481,12 @@
       <c r="D44" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="5"/>
+      <c r="F44" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G44" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5502,12 +5500,12 @@
       <c r="D45" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="5"/>
+      <c r="F45" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="G45" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5521,12 +5519,12 @@
       <c r="D46" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="5"/>
+      <c r="F46" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G46" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5540,12 +5538,12 @@
       <c r="D47" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="5"/>
+      <c r="F47" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5561,12 +5559,12 @@
       <c r="D48" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="5"/>
+      <c r="F48" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G48" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5" t="s">
-        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/template/FJ_Primergy/PRIMERGYチェックシート.xlsx
+++ b/template/FJ_Primergy/PRIMERGYチェックシート.xlsx
@@ -1845,11 +1845,8 @@
     <col min="8" max="8" width="13.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.125" style="1" customWidth="1"/>
     <col min="10" max="11" width="16.5" style="1" customWidth="1"/>
-    <col min="12" max="17" width="11.625" style="1" customWidth="1"/>
-    <col min="18" max="1026" width="8.75" style="1" customWidth="1"/>
-    <col min="1027" max="1028" width="11.625" style="1" customWidth="1"/>
-    <col min="1029" max="1029" width="9" style="1" customWidth="1"/>
-    <col min="1030" max="16384" width="9" style="1"/>
+    <col min="12" max="16" width="11.625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
@@ -3552,10 +3549,7 @@
     <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
     <col min="7" max="8" width="16.5" style="1" customWidth="1"/>
     <col min="9" max="10" width="11.625" style="1" customWidth="1"/>
-    <col min="11" max="1019" width="8.75" style="1" customWidth="1"/>
-    <col min="1020" max="1021" width="11.625" style="1" customWidth="1"/>
-    <col min="1022" max="1022" width="9" style="1" customWidth="1"/>
-    <col min="1023" max="16384" width="9" style="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
@@ -3961,9 +3955,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK16"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3979,9 +3973,8 @@
     <col min="17" max="18" width="9" style="3" customWidth="1"/>
     <col min="19" max="19" width="13.375" style="3" customWidth="1"/>
     <col min="20" max="20" width="18" style="3" customWidth="1"/>
-    <col min="21" max="1025" width="9" style="3" customWidth="1"/>
-    <col min="1026" max="1026" width="9" style="2" customWidth="1"/>
-    <col min="1027" max="16384" width="9" style="2"/>
+    <col min="21" max="23" width="9" style="3" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.15">
@@ -4547,20 +4540,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.375" style="3" customWidth="1"/>
     <col min="2" max="4" width="17.75" style="3" customWidth="1"/>
     <col min="5" max="5" width="56.875" style="3" customWidth="1"/>
-    <col min="6" max="1025" width="9" style="3" customWidth="1"/>
-    <col min="1026" max="1026" width="9" style="2" customWidth="1"/>
-    <col min="1027" max="16384" width="9" style="2"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -4640,7 +4629,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AML48"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -4652,9 +4641,6 @@
     <col min="5" max="5" width="8.25" style="3" customWidth="1"/>
     <col min="6" max="6" width="47.625" style="3" customWidth="1"/>
     <col min="7" max="7" width="14.25" style="3" customWidth="1"/>
-    <col min="8" max="9" width="8.5" style="3" customWidth="1"/>
-    <col min="10" max="11" width="8.5" customWidth="1"/>
-    <col min="12" max="1026" width="8.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5590,9 +5576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5603,9 +5587,7 @@
     <col min="5" max="5" width="24.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.75" style="1" customWidth="1"/>
-    <col min="8" max="1010" width="8.75" style="1" customWidth="1"/>
-    <col min="1011" max="1011" width="9" style="1" customWidth="1"/>
-    <col min="1012" max="16384" width="9" style="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
